--- a/anaconda-toolbox-demo.xlsx
+++ b/anaconda-toolbox-demo.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1235A04D-8113-4B51-A04B-553E8193BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B9F34-A2F2-4310-A331-C217BFF29AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{011F663D-C518-4A50-A890-BBA6D0628C6E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{813072D3-45D7-41B7-8D6B-03E240CFBCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$947</definedName>
@@ -79,19 +78,18 @@
 <file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
 <pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
   <pythonScript>
-    <code xml:space="preserve">import pandas as pd
-import matplotlib.pyplot as plt
+    <code xml:space="preserve">_df = xl(%P2%, headers=True)
 # Convert Date column to datetime type
 _df['Date'] = pd.to_datetime(_df['Date'])
-# Create Month column
-_df['Month'] = _df['Date'].dt.month
-# Group by Month and calculate sum of n_rides
-rides_by_month = _df.groupby('Month')['n_rides'].sum()
-# Plot the sum of n_rides by month
-plt.plot(rides_by_month.index, rides_by_month.values)
-plt.xlabel('Month')
-plt.ylabel('Sum of n_rides')
-plt.title('Sum of n_rides by Month')
+# Create Week column
+_df['Week'] = _df['Date'].dt.week
+# Group by Week and calculate average of n_rides
+rides_by_week = _df.groupby('Week')['n_rides'].mean()
+# Plot the average of n_rides by week
+plt.plot(rides_by_week.index, rides_by_week.values)
+plt.xlabel('Week')
+plt.ylabel('Average n_rides')
+plt.title('Average n_rides by Week')
 plt.show()
 </code>
   </pythonScript>
@@ -3017,27 +3015,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>252412</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>337959</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144978</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1067953</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7187F4D6-F2A1-C303-0A74-1671D0AD6416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84045286-954E-7498-A730-86AD634B1299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!I1"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3048,8 +3051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296525" y="590550"/>
-          <a:ext cx="6062484" cy="3950216"/>
+          <a:off x="9986963" y="0"/>
+          <a:ext cx="5230378" cy="4142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3104,41 +3107,27 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
-    <v>695ecd1db28f459e955d31f5c07de979</v>
-    <v>name '_df' is not defined</v>
-    <v>NameError</v>
-    <v>18</v>
-    <v>1</v>
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
 <rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="correlationId" t="s"/>
-    <k n="errorMessage" t="s"/>
-    <k n="errorName" t="s"/>
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8605D295-799D-4FDE-8FAF-1213DD299AE4}" name="bikeshare" displayName="bikeshare" ref="A1:G947" totalsRowShown="0">
-  <autoFilter ref="A1:G947" xr:uid="{F608FA8A-533E-45DB-9231-A90C64B7CFE2}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C3DE9CEA-C571-4EB9-89AC-7B2723D3859E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{6578D48E-683A-4BB3-B99F-EE838AFD943E}" name="Max Temp"/>
-    <tableColumn id="3" xr3:uid="{2E07C5CA-6EA8-4DCF-948F-B0AE9654BEE1}" name="Month"/>
-    <tableColumn id="4" xr3:uid="{658394EF-4DAA-4E07-9B4B-91A8FB0E7EBA}" name="Holiday"/>
-    <tableColumn id="5" xr3:uid="{E3D9F082-11D5-4B20-9655-327C941BC7C7}" name="Weekend"/>
-    <tableColumn id="6" xr3:uid="{0D587599-7310-4B9B-B0B6-4BAE9008F3ED}" name="home_game"/>
-    <tableColumn id="7" xr3:uid="{68CB7D82-E859-4D2F-97AC-B6EEC45E02E2}" name="n_rides"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3458,32 +3447,34 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="865" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="1264" row="9">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
-  <wetp:taskpane dockstate="right" visibility="0" width="700" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="10">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{61AA4459-7735-4555-9EDD-4D3ED4183F80}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BF699CF0-4403-4B18-9723-39168983B56C}">
   <we:reference id="6db04484-84ab-40dc-969a-a4e1f00cc763" version="1.0.1.0" store="file://GEORGESSURFACE/Users/georg/Downloads/manifest" storeType="Filesystem"/>
   <we:alternateReferences/>
   <we:properties>
-    <we:property name="dataDownloadDefinitions" value="&quot;{\&quot;definitions\&quot;:[{\&quot;id\&quot;:\&quot;8731d54d-bd14-4ed1-a4ef-5052a85d3d3e\&quot;,\&quot;catalogKind\&quot;:\&quot;public\&quot;,\&quot;catalogId\&quot;:\&quot;_bike_share\&quot;,\&quot;fileName\&quot;:\&quot;rides\&quot;,\&quot;query\&quot;:\&quot;SELECT * FROM data\&quot;,\&quot;destSelection\&quot;:{\&quot;rangeType\&quot;:\&quot;Sheet\&quot;,\&quot;identifier\&quot;:\&quot;{F608FA8A-533E-45DB-9231-A90C64B7CFE2}\&quot;,\&quot;displayName\&quot;:\&quot;Sheet1\&quot;},\&quot;lastDownload\&quot;:\&quot;2023-11-12T13:36:05.141Z\&quot;}],\&quot;version\&quot;:1}&quot;"/>
+    <we:property name="dataDownloadDefinitions" value="&quot;{\&quot;definitions\&quot;:[{\&quot;id\&quot;:\&quot;b517e9a3-1914-44c4-9b11-a246d80406d6\&quot;,\&quot;catalogKind\&quot;:\&quot;public\&quot;,\&quot;catalogId\&quot;:\&quot;_bike_share\&quot;,\&quot;fileName\&quot;:\&quot;rides\&quot;,\&quot;query\&quot;:\&quot;SELECT * FROM data\&quot;,\&quot;destSelection\&quot;:{\&quot;rangeType\&quot;:\&quot;Sheet\&quot;,\&quot;identifier\&quot;:\&quot;{8A0799E1-12A7-49C5-9C9C-62118E763318}\&quot;,\&quot;displayName\&quot;:\&quot;Sheet1\&quot;},\&quot;lastDownload\&quot;:\&quot;2023-11-29T23:46:55.477Z\&quot;}],\&quot;version\&quot;:1}&quot;"/>
   </we:properties>
   <we:bindings>
-    <we:binding id="UnnamedBinding_0_1699796699849" type="matrix" appref="{16A78825-85AF-4DC3-B7EC-82F508496C47}"/>
-    <we:binding id="UnnamedBinding_1_1699797045906" type="matrix" appref="{AFA38961-B6DB-4D60-9EAC-B791F9D73A29}"/>
+    <we:binding id="UnnamedBinding_2_1701305666646" type="matrix" appref="{296F8997-4DAD-4D60-89F1-E476D8653B29}"/>
+    <we:binding id="UnnamedBinding_3_1701306663807" type="matrix" appref="{89C78B0F-C58D-45BD-9664-5124869F02FE}"/>
+    <we:binding id="UnnamedBinding_4_1701307071596" type="matrix" appref="{DF19F33E-2AC8-450F-8EFE-BF9AA884F3B5}"/>
+    <we:binding id="UnnamedBinding_5_1701307418856" type="matrix" appref="{524998E0-C152-47C6-835A-9730F1C19E38}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
 </file>
 
 <file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E57236E0-F942-494D-A726-35F7F10226E7}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{DAB88922-8156-403C-AB9F-C796A6F0B8BB}">
   <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="WA200003696" version="1.3.0.0" store="WA200003696" storeType="OMEX"/>
@@ -3502,18 +3493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F608FA8A-533E-45DB-9231-A90C64B7CFE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0799E1-12A7-49C5-9C9C-62118E763318}">
   <dimension ref="A1:I947"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.62890625" customWidth="1"/>
-    <col min="5" max="5" width="9.14453125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="1" max="1" width="17.515625" customWidth="1"/>
+    <col min="9" max="9" width="15.18359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.85">
@@ -3538,6 +3528,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="e" cm="1" vm="1">
+        <f t="array" ref="I1">_xlfn._xlws.PY(0,0,A1:G947)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
@@ -3814,10 +3808,6 @@
       <c r="G13">
         <v>216</v>
       </c>
-      <c r="I13" t="e" cm="1" vm="1">
-        <f t="array" ref="I13">_xlfn._xlws.PY(0,0)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
@@ -25302,35 +25292,26 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G947" xr:uid="{8A0799E1-12A7-49C5-9C9C-62118E763318}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x15:webExtension appRef="{16A78825-85AF-4DC3-B7EC-82F508496C47}">
+        <x15:webExtension appRef="{296F8997-4DAD-4D60-89F1-E476D8653B29}">
+          <xm:f>Sheet1!$I$2</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{89C78B0F-C58D-45BD-9664-5124869F02FE}">
+          <xm:f>Sheet1!$I$15</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{DF19F33E-2AC8-450F-8EFE-BF9AA884F3B5}">
+          <xm:f>Sheet1!$I$15</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{524998E0-C152-47C6-835A-9730F1C19E38}">
           <xm:f>Sheet1!$I$1</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{AFA38961-B6DB-4D60-9EAC-B791F9D73A29}">
-          <xm:f>Sheet1!$I$13</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FFF2C-078F-443B-B191-80E894080087}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/anaconda-toolbox-demo.xlsx
+++ b/anaconda-toolbox-demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B9F34-A2F2-4310-A331-C217BFF29AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA612E6-CDE4-4A94-BEE0-8E5D93B18880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{813072D3-45D7-41B7-8D6B-03E240CFBCC1}"/>
   </bookViews>
@@ -93,6 +93,18 @@
 plt.show()
 </code>
   </pythonScript>
+  <pythonScript>
+    <code xml:space="preserve">import pandas as pd
+# Convert Date column to datetime type
+_df['Date'] = pd.to_datetime(_df['Date'])
+# Create Weekend column
+_df['Weekend'] = _df['Date'].dt.dayofweek.isin([5, 6])
+# Group by Weekend and calculate the sum of n_rides
+rides_per_weekend = _df.groupby('Weekend')['n_rides'].sum()
+# Display the total number of n_rides per weekend
+rides_per_weekend
+</code>
+  </pythonScript>
 </pythonScripts>
 </file>
 
@@ -3015,13 +3027,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>804862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1067953</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>767915</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84590</xdr:rowOff>
     </xdr:to>
@@ -3051,7 +3063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9986963" y="0"/>
+          <a:off x="10791825" y="0"/>
           <a:ext cx="5230378" cy="4142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3447,7 +3459,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1264" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="920" row="9">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="700" row="10">
@@ -3468,6 +3480,7 @@
     <we:binding id="UnnamedBinding_3_1701306663807" type="matrix" appref="{89C78B0F-C58D-45BD-9664-5124869F02FE}"/>
     <we:binding id="UnnamedBinding_4_1701307071596" type="matrix" appref="{DF19F33E-2AC8-450F-8EFE-BF9AA884F3B5}"/>
     <we:binding id="UnnamedBinding_5_1701307418856" type="matrix" appref="{524998E0-C152-47C6-835A-9730F1C19E38}"/>
+    <we:binding id="UnnamedBinding_0_1701378248291" type="matrix" appref="{45EF1DF9-6AA4-4D1A-9162-4C39C1889401}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -3483,6 +3496,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -3494,11 +3510,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0799E1-12A7-49C5-9C9C-62118E763318}">
-  <dimension ref="A1:I947"/>
+  <dimension ref="A1:J947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
@@ -3506,7 +3520,7 @@
     <col min="9" max="9" width="15.18359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3556,7 +3570,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3579,7 +3593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3616,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +3639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3648,7 +3662,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3671,7 +3685,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3731,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3763,7 +3777,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3786,7 +3800,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3809,7 +3823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3831,8 +3845,15 @@
       <c r="G14">
         <v>265</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14:J16">_xlfn._xlws.PY(1,0)</f>
+        <v>Weekend</v>
+      </c>
+      <c r="J14" t="str">
+        <v>n_rides</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3854,8 +3875,14 @@
       <c r="G15">
         <v>344</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>133275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3876,6 +3903,12 @@
       </c>
       <c r="G16">
         <v>304</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>73335</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.85">
@@ -25310,6 +25343,9 @@
         <x15:webExtension appRef="{524998E0-C152-47C6-835A-9730F1C19E38}">
           <xm:f>Sheet1!$I$1</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{45EF1DF9-6AA4-4D1A-9162-4C39C1889401}">
+          <xm:f>Sheet1!$I$14</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>

--- a/anaconda-toolbox-demo.xlsx
+++ b/anaconda-toolbox-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA612E6-CDE4-4A94-BEE0-8E5D93B18880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ECA6B4-D33A-4DCD-A9CA-28BCA989DB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{813072D3-45D7-41B7-8D6B-03E240CFBCC1}"/>
   </bookViews>
@@ -3459,7 +3459,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="920" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="1154" row="9">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="700" row="10">
@@ -3512,7 +3512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0799E1-12A7-49C5-9C9C-62118E763318}">
   <dimension ref="A1:J947"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
